--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Downloads\site-titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1048374A-B0D9-4AD2-9480-A93A6B81718A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F883B3A-18A6-4A6D-B0D2-A666EE16EFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="23280" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Firmeza da pele, Saúde articular, Baixas calorias</t>
-  </si>
-  <si>
-    <t>{"beneficios": ["Fortalece unhas e cabelos", "Contribui para a firmeza e elasticidade da pele", "Ajuda na saúde das articulações e cartilagens", "Ideal para quem pratica atividades físicas", "Baixas calorias por porção"], "informacoes": {"Peso líquido": "120g", "Porção diária": "10g", "Rendimento": "12 porções", "Sabor": "Natural ou Saborizado", "Ingredientes": "Colágeno hidrolisado em pó"}, "uso": "Misture 1 colher (10g) em 200 ml de água, suco ou bebida de sua preferência. Tome 1 vez ao dia, de preferência longe das refeições principais para melhor absorção."}</t>
   </si>
   <si>
     <t>whey</t>
@@ -478,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,9 +546,6 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -578,58 +572,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -637,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
